--- a/20190509/effect_encoding.xlsx
+++ b/20190509/effect_encoding.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liouscott/Documents/scott/cathay-ml/cathay-dsml-data/20190506/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liouscott/Documents/scott/cathay-ml/cathay-dsml/20190509/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84151224-77B1-4544-949C-96BEDEAF26CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F387A36-0FAC-414D-9E8A-63E94FAE80FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{41D58B13-1D1E-6E4A-B16F-F4B92E0E41D1}"/>
+    <workbookView xWindow="440" yWindow="680" windowWidth="28040" windowHeight="17040" xr2:uid="{41D58B13-1D1E-6E4A-B16F-F4B92E0E41D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>SF</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>總平均</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
@@ -412,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26863C86-3F62-0D4B-97D9-FCE756F79C78}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -434,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -451,7 +460,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -468,7 +477,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -488,7 +497,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -511,7 +520,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -527,8 +536,10 @@
       <c r="H6" s="2">
         <v>3333.3332999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -539,7 +550,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -550,7 +561,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -571,6 +582,39 @@
       <c r="J9">
         <f>J5-H6</f>
         <v>-833.33329999999978</v>
+      </c>
+      <c r="L9">
+        <f>H5-I5</f>
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <f>J5-I5</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>666.66670000000022</v>
+      </c>
+      <c r="P10">
+        <v>-833.33329999999978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f>H6-O10-P10</f>
+        <v>3499.9998999999993</v>
       </c>
     </row>
   </sheetData>

--- a/20190509/effect_encoding.xlsx
+++ b/20190509/effect_encoding.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liouscott/Documents/scott/cathay-ml/cathay-dsml/20190509/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F387A36-0FAC-414D-9E8A-63E94FAE80FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CA1B6C-D5BA-4B40-8F33-35822B741AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="680" windowWidth="28040" windowHeight="17040" xr2:uid="{41D58B13-1D1E-6E4A-B16F-F4B92E0E41D1}"/>
+    <workbookView xWindow="0" yWindow="5080" windowWidth="51200" windowHeight="17540" xr2:uid="{41D58B13-1D1E-6E4A-B16F-F4B92E0E41D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,37 +32,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>平均</t>
-  </si>
-  <si>
-    <t>總平均</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>effect</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>Oneil</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>ch8</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>ch9</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>ch7</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Winnie</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>俊嘉</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>分散式運算</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,17 +128,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,17 +191,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,203 +544,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26863C86-3F62-0D4B-97D9-FCE756F79C78}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43605</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>43612</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>43619</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>43626</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>43633</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>43640</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>43654</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>43661</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>43668</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43675</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>43682</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>43689</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>43696</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3499</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3500</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3499</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3501</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3500</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3500</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3501</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3333.3332999999998</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2501</v>
-      </c>
-      <c r="H9">
-        <f>H5-H6</f>
-        <v>666.66670000000022</v>
-      </c>
-      <c r="I9">
-        <f>I5-H6</f>
-        <v>166.66670000000022</v>
-      </c>
-      <c r="J9">
-        <f>J5-H6</f>
-        <v>-833.33329999999978</v>
-      </c>
-      <c r="L9">
-        <f>H5-I5</f>
-        <v>500</v>
-      </c>
-      <c r="M9">
-        <f>J5-I5</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>666.66670000000022</v>
-      </c>
-      <c r="P10">
-        <v>-833.33329999999978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N15">
-        <f>H6-O10-P10</f>
-        <v>3499.9998999999993</v>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" display="https://www.geeksforgeeks.org/graph-data-structure-and-algorithms/" xr:uid="{6F2E310A-1AB8-5549-8480-3A5923D6CDE8}"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://www.geeksforgeeks.org/matrix/" xr:uid="{8E0F09E6-ED15-E144-B8E5-CD5735008439}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>